--- a/trunk/FASE 2/PRUEBAS/Pruebas integrales - fechas propuestas_VCORREGIDA.xlsx
+++ b/trunk/FASE 2/PRUEBAS/Pruebas integrales - fechas propuestas_VCORREGIDA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="6195"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Agenda PI" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -736,14 +736,14 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B4" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.28515625" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="3" customWidth="1"/>
